--- a/Tables/Table_1_Sapindaceae_tribes_MS.xlsx
+++ b/Tables/Table_1_Sapindaceae_tribes_MS.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svenbuerki/Documents/Current_projects/Sapindaceae_phylogenomics/MS/Angio353_Sapindaceae/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F3592184-CE08-8448-B7B3-C84714350030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E581E1-E83F-C746-9ADC-13978A00602D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36400" yWindow="1220" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="-36400" yWindow="1220" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_1_Sapindaceae_tribes_MS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1142,6 +1153,1024 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Alatococcus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atalaya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (12), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deinbollia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (40), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eriocoelum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hornea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lepisanthes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (24), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pseudima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sapindus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (13), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thouinidium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (7), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toulicia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (14), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tristira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zollingeria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tristiropsis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blighiopsis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haplocoelum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dilodendron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Melicoccus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Talisia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (52), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tripterodendron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blomia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guindilia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Athyana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diatenopteryx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bridgesia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Allophylastrum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Allophylus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (250), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thouinia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (28)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cardiospermum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (12), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Houssayanthus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lophostigma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paullinia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (200), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Serjania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thinouia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (9), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Urvillea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (14)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beguea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camptolepis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (4), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chouxia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (6), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gereaua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Macphersonia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (8), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pappea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plagioscyphus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pseudopteris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stadmania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (6), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tsingya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+  </si>
+  <si>
+    <t>North America (Florida), Central America (incl. the West indies), Africa, Madagascar (incl. Mascarenes Islands), India and all the way to Australia and the Pacific Islands</t>
+  </si>
+  <si>
+    <t>Paleotropical</t>
+  </si>
+  <si>
+    <t>Northern temperate regions and tropical mountains</t>
+  </si>
+  <si>
+    <t>Europe, North and South America, Asia</t>
+  </si>
+  <si>
+    <t>North America and SW China and N Vietnam</t>
+  </si>
+  <si>
+    <t>South-East Asia</t>
+  </si>
+  <si>
+    <t>Tropical</t>
+  </si>
+  <si>
+    <t>Malesia, Australia and the Pacific islands</t>
+  </si>
+  <si>
+    <t>Tropical America</t>
+  </si>
+  <si>
+    <t>Pantropical</t>
+  </si>
+  <si>
+    <t>Africa, South America, Phillipines</t>
+  </si>
+  <si>
+    <t>Xanthoceroideae</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Hippocastanoideae</t>
+  </si>
+  <si>
+    <t>Dodonaeoideae</t>
+  </si>
+  <si>
+    <t>Sapindoideae</t>
+  </si>
+  <si>
+    <t>Tristiropsidis</t>
+  </si>
+  <si>
+    <t>Ungnadieae</t>
+  </si>
+  <si>
+    <t>Blomieae</t>
+  </si>
+  <si>
+    <t>Guindilieae</t>
+  </si>
+  <si>
+    <t>Stadmanieae</t>
+  </si>
+  <si>
+    <t>Tribe (this study)</t>
+  </si>
+  <si>
+    <t>Subfamily (this study)</t>
+  </si>
+  <si>
+    <t>Buerki et al. (2009, 2011b)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Aporrhiza</t>
     </r>
     <r>
@@ -1247,7 +2276,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Euphoria</t>
+      <t>Glenniea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (8), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haplocoelopsis</t>
     </r>
     <r>
       <rPr>
@@ -1268,7 +2318,668 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Glenniea</t>
+      <t>Laccodiscus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (4), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Litchi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nephelium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (22), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Otonephelium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pancovia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (13), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Placodiscus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (15), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pometia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radlkofera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xerospermum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bizonula</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), Chonopetalum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gloeocarpus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gongrospermum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lychnodiscus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (7), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Namataea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Porocystis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pseudopancovia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smelophyllum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Madagascar (incl. the Comoro Islands), the Mascarenes, the Seychelles Islands (Aldabra atoll) and tropical Africa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alectryon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (30), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arytera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (17), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Castanospora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cnesmocarpon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (4), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cupania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (45), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cupaniopsis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (43), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dictyoneura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diploglottis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (12), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elattostachys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (20), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eurycorymbus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gongrodiscus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guioa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (65), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jagera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lecaniodiscus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lepiderema</t>
     </r>
     <r>
       <rPr>
@@ -1289,7 +3000,154 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Haplocoelopsis</t>
+      <t>Lepidocupania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (21), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lepidopetalum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (7), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Matayba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (56), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mischarytera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mischocarpus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (15), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Molinaea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (9), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neoarytera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (4), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pentascyphus</t>
     </r>
     <r>
       <rPr>
@@ -1310,7 +3168,133 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Laccodiscus</t>
+      <t>Podonephelium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (9), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rhysotoechia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (14), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sarcopteryx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (12), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sarcotoechia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (11), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scyphonychium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Storthocalyx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (5), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Synima</t>
     </r>
     <r>
       <rPr>
@@ -1331,345 +3315,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Litchi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nephelium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (22), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Otonephelium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pancovia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (13), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Placodiscus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (15), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pometia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Radlkofera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Xerospermum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alatococcus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Atalaya</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (12), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Deinbollia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (40), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eriocoelum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (10), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hornea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lepisanthes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (24), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pseudima</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sapindus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (13), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thouinidium</t>
+      <t>Tina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (20), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toechima</t>
     </r>
     <r>
       <rPr>
@@ -1690,202 +3357,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Toulicia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (14), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tristira</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zollingeria</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tristiropsis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blighiopsis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Haplocoelum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (5)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dilodendron</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Melicoccus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (10), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Talisia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (52), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tripterodendron</t>
+      <t>Trigonachras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (8), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vouarana</t>
     </r>
     <r>
       <rPr>
@@ -1897,1512 +3390,12 @@
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blomia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guindilia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Athyana</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diatenopteryx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bridgesia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Allophylastrum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Allophylus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (250), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thouinia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (28)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cardiospermum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (12), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Houssayanthus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lophostigma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Paullinia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (200), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Serjania</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thinouia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (9), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Urvillea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (14)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Beguea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (10), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Camptolepis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (4), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chouxia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (6), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gereaua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Macphersonia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (8), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pappea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Plagioscyphus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (10), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pseudopteris</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stadmania</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (6), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tsingya</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alectryon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (30), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Arytera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (17), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Castanospora</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cnesmocarpon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (4), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cupania</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (45), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cupaniopsis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (43), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dictyoneura</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diploglottis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (12), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Elattostachys</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (20), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eurycorymbus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gongrodiscus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guioa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (65), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jagera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lecaniodiscus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lepiderema</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (8), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lepidocupania</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (21), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lepidopetalum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (7), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Matayba</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (56), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mischarytera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (3), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mischocarpus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (15), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Molinaea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (9), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Neoarytera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (4), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pentascyphus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Podonephelium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (9), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rhysotoechia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (14), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sarcopteryx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (12), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sarcotoechia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (11), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scyphonychium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Storthocalyx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (5), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Synima</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (20), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Toechima</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (7), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trigonachras</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (8), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vouarana</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chonopetalum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gloeocarpus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gongrospermum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lychnodiscus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (7), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Namataea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Porocystis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pseudopancovia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smelophyllum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1)</t>
-    </r>
-  </si>
-  <si>
-    <t>North America (Florida), Central America (incl. the West indies), Africa, Madagascar (incl. Mascarenes Islands), India and all the way to Australia and the Pacific Islands</t>
-  </si>
-  <si>
-    <t>Paleotropical</t>
-  </si>
-  <si>
-    <t>Northern temperate regions and tropical mountains</t>
-  </si>
-  <si>
-    <t>Europe, North and South America, Asia</t>
-  </si>
-  <si>
-    <t>North America and SW China and N Vietnam</t>
-  </si>
-  <si>
-    <t>South-East Asia</t>
-  </si>
-  <si>
-    <t>Tropical</t>
-  </si>
-  <si>
-    <t>Malesia, Australia and the Pacific islands</t>
-  </si>
-  <si>
-    <t>Tropical America</t>
-  </si>
-  <si>
-    <t>Pantropical</t>
-  </si>
-  <si>
-    <t>Madagascar (incl. the Mascarenes islands) and tropical Africa</t>
-  </si>
-  <si>
-    <t>Africa, South America, Phillipines</t>
-  </si>
-  <si>
-    <t>Xanthoceroideae</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Hippocastanoideae</t>
-  </si>
-  <si>
-    <t>Dodonaeoideae</t>
-  </si>
-  <si>
-    <t>Sapindoideae</t>
-  </si>
-  <si>
-    <t>Tristiropsidis</t>
-  </si>
-  <si>
-    <t>Ungnadieae</t>
-  </si>
-  <si>
-    <t>Blomieae</t>
-  </si>
-  <si>
-    <t>Guindilieae</t>
-  </si>
-  <si>
-    <t>Stadmanieae</t>
-  </si>
-  <si>
-    <t>Tribe (this study)</t>
-  </si>
-  <si>
-    <t>Subfamily (this study)</t>
-  </si>
-  <si>
-    <t>Buerki et al. (2009, 2011b)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3949,7 +3942,34 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3997,18 +4017,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:I23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:I23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Clade" dataDxfId="10"/>
-    <tableColumn id="4" name="Radlkofer (1933)" dataDxfId="1"/>
-    <tableColumn id="3" name="Buerki et al. (2009, 2011b)" dataDxfId="0"/>
-    <tableColumn id="9" name="Subfamily (this study)" dataDxfId="2"/>
-    <tableColumn id="2" name="Tribe (this study)" dataDxfId="9"/>
-    <tableColumn id="5" name="N. genera" dataDxfId="8"/>
-    <tableColumn id="6" name="Genera" dataDxfId="7"/>
-    <tableColumn id="7" name="N. species" dataDxfId="6"/>
-    <tableColumn id="8" name="Distribution" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Clade" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Radlkofer (1933)" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Buerki et al. (2009, 2011b)" dataDxfId="15" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Subfamily (this study)" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tribe (this study)" dataDxfId="13" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N. genera" dataDxfId="12" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genera" dataDxfId="11" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="N. species" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Distribution" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4310,11 +4330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4340,13 +4360,13 @@
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>69</v>
@@ -4372,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4401,7 +4421,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -4416,7 +4436,7 @@
         <v>113</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -4430,7 +4450,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -4445,7 +4465,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -4459,7 +4479,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -4474,7 +4494,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="187" x14ac:dyDescent="0.2">
@@ -4488,7 +4508,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -4503,7 +4523,7 @@
         <v>126</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -4517,10 +4537,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -4532,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -4546,7 +4566,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
@@ -4575,7 +4595,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -4590,10 +4610,10 @@
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4604,22 +4624,22 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1">
         <v>116</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -4633,7 +4653,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
@@ -4642,16 +4662,16 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="1">
         <v>129</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4662,25 +4682,25 @@
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4691,7 +4711,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
@@ -4700,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1">
         <v>7</v>
@@ -4720,7 +4740,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -4729,13 +4749,13 @@
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1">
         <v>64</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -4749,16 +4769,16 @@
         <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -4767,7 +4787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4778,16 +4798,16 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="1">
         <v>3</v>
@@ -4796,7 +4816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4807,7 +4827,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
@@ -4816,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
@@ -4825,7 +4845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4836,7 +4856,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
@@ -4845,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -4854,7 +4874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4865,7 +4885,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>53</v>
@@ -4874,13 +4894,13 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1">
         <v>279</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -4894,7 +4914,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>56</v>
@@ -4903,13 +4923,13 @@
         <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="1">
         <v>241</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -4923,22 +4943,22 @@
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1">
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="1">
         <v>50</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="372" x14ac:dyDescent="0.2">
@@ -4952,7 +4972,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>61</v>
@@ -4961,16 +4981,16 @@
         <v>34</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1">
         <v>463</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -4981,23 +5001,34 @@
         <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F23" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H23" s="1">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
